--- a/OutputFiles/TC17_Canine_Filter_Diagnosis-RespCarciStg2_WebData.xlsx
+++ b/OutputFiles/TC17_Canine_Filter_Diagnosis-RespCarciStg2_WebData.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="WebDataCanine" r:id="rId3" sheetId="1"/>
+    <sheet name="WebData" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>

--- a/OutputFiles/TC17_Canine_Filter_Diagnosis-RespCarciStg2_WebData.xlsx
+++ b/OutputFiles/TC17_Canine_Filter_Diagnosis-RespCarciStg2_WebData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Case ID</t>
   </si>
@@ -41,40 +41,28 @@
     <t>Neutered Status</t>
   </si>
   <si>
-    <t>NCATS-COP01CCB020054</t>
+    <t>COTC007B0212</t>
   </si>
   <si>
-    <t>NCATS-COP01</t>
+    <t>COTC007B</t>
   </si>
   <si>
-    <t>Transcriptomics</t>
+    <t>Clinical Trial</t>
   </si>
   <si>
-    <t>Labrador Retriever</t>
+    <t>Boxer</t>
   </si>
   <si>
-    <t>Lymphoma :: Stage 2</t>
+    <t>Stage 2</t>
   </si>
   <si>
-    <t/>
+    <t>II</t>
   </si>
   <si>
-    <t>7</t>
+    <t>10.1</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB030258</t>
-  </si>
-  <si>
-    <t>Golden Retriever</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>Spayed female</t>
   </si>
 </sst>
 </file>
@@ -119,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -179,38 +167,6 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
